--- a/matrix1.xlsx
+++ b/matrix1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,36 @@
           <t>avn[m/s]</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISEvn</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYvn</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERvn</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISECJ</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYCJ</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERCJ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -535,55 +565,73 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01654590919448932</v>
+        <v>0.006190032329288797</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01885779094947758</v>
+        <v>-0.09905735073694148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02639822261761551</v>
+        <v>-0.02882892102306393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01913663552577492</v>
+        <v>0.0930472728448664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8680748668317176</v>
+        <v>0.6804372413357069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4267450598497117</v>
+        <v>0.2407653776524582</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05021226650002272</v>
+        <v>0.07577708755814427</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02349524691800729</v>
+        <v>-0.06661945784695517</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1942085152557189</v>
+        <v>-0.03774096955801685</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07864616250074435</v>
+        <v>0.1287187164702983</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03712822056616227</v>
+        <v>-0.01561341485112211</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06852308315825491</v>
+        <v>0.1266102887011399</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8378019468292165</v>
+        <v>0.996721557730366</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1552069890138788</v>
+        <v>-0.01785712505780524</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05912746656281086</v>
+        <v>0.07899104854840969</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02542342407305271</v>
+        <v>-0.01963290075181498</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05885945250053914</v>
+        <v>0.07260189473549673</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05701446224278326</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0797748856247205</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.06067892737653356</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2170662335653225</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.01844048144899808</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1566802401023642</v>
       </c>
     </row>
     <row r="3">
@@ -593,58 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01654590919448932</v>
+        <v>0.006190032329288797</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1536918157135204</v>
+        <v>0.1642033203747854</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1416965841602707</v>
+        <v>-0.153818244334822</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1876926969319719</v>
+        <v>-0.2039327921710812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1446577263812089</v>
+        <v>0.2246918646923591</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5694100647586333</v>
+        <v>0.6093222712029465</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8417064778513521</v>
+        <v>0.8354327750133551</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06459028228668688</v>
+        <v>0.06506388715722415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3282010014811767</v>
+        <v>0.3646291934460966</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03366465877219822</v>
+        <v>0.03401603255618717</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2865577299445838</v>
+        <v>0.3040429728125948</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02336378819419809</v>
+        <v>0.02350558010703257</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1506495279069065</v>
+        <v>-0.009385895066179359</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5385646276594157</v>
+        <v>-0.1113034134599787</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7544522405607187</v>
+        <v>0.611748422910607</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.07924624284367061</v>
+        <v>-0.07790302895166198</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.06395621511472489</v>
+        <v>-0.1902819544471923</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.155899257772812</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.2498393400108566</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1886588184233778</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3237024838721856</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.2173485390074035</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2310938208871164</v>
       </c>
     </row>
     <row r="4">
@@ -654,58 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01885779094947758</v>
+        <v>-0.09905735073694148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1536918157135204</v>
+        <v>0.1642033203747854</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1076752228481158</v>
+        <v>-0.1331680140372758</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9412924867988678</v>
+        <v>-0.9359484678205836</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2261235022787538</v>
+        <v>0.3296272216688462</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07934874349826068</v>
+        <v>0.1162244203646277</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.314471156958618</v>
+        <v>-0.3103847922860472</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8268070669242461</v>
+        <v>0.8320358218848599</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4675021524723059</v>
+        <v>0.4846250089297718</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8261654013351875</v>
+        <v>-0.8210667833009186</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5285614639123607</v>
+        <v>0.5361647724269748</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.8138971027388426</v>
+        <v>-0.8094102709804328</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2460906573674425</v>
+        <v>-0.08464849993911626</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5190446692986195</v>
+        <v>-0.2801106472844473</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.4170935270918281</v>
+        <v>-0.6102186241280649</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.319628898284846</v>
+        <v>-0.3187302376461684</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.9080438867139997</v>
+        <v>-0.8629056704768124</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.6761068350043072</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.8564570056281965</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7536707735088728</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.4576237711333416</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.7950303951800924</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.4452426152054491</v>
       </c>
     </row>
     <row r="5">
@@ -715,58 +799,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02639822261761551</v>
+        <v>-0.02882892102306393</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1416965841602707</v>
+        <v>-0.153818244334822</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1076752228481158</v>
+        <v>-0.1331680140372758</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2758377321834922</v>
+        <v>0.3058749916127844</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3116058019289516</v>
+        <v>-0.5347341347715787</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4870151153893911</v>
+        <v>-0.5304120363906275</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.260511454546478</v>
+        <v>-0.2571776590684125</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3951667684582855</v>
+        <v>0.3624759450922164</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6174954290275405</v>
+        <v>0.5807805004260772</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2733888708633293</v>
+        <v>-0.2488915100961243</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.7879913574798906</v>
+        <v>-0.7930840559141554</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3160447763313458</v>
+        <v>-0.2900356608168712</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.353941151320089</v>
+        <v>0.03792892788078263</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3340130619854791</v>
+        <v>0.9701263385126112</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2883851041681346</v>
+        <v>0.1133005624266376</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9330234620728286</v>
+        <v>0.9388486766210815</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3791189986609639</v>
+        <v>0.5073829555538407</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6899649662876475</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2439928534219148</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.4454934103144355</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.2107031585558488</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.2009418033589134</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.1110969520896056</v>
       </c>
     </row>
     <row r="6">
@@ -776,58 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01913663552577492</v>
+        <v>0.0930472728448664</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1876926969319719</v>
+        <v>-0.2039327921710812</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9412924867988678</v>
+        <v>-0.9359484678205836</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2758377321834922</v>
+        <v>0.3058749916127844</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2859632393837357</v>
+        <v>-0.4404891283427897</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.200682282864438</v>
+        <v>-0.2383051058880319</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2570115589682361</v>
+        <v>0.247962891624597</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6838715479682913</v>
+        <v>-0.6764166293552757</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3530051298869593</v>
+        <v>-0.3727279924074216</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7572168384458733</v>
+        <v>0.7495660397845796</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.6760221509093335</v>
+        <v>-0.6903735515637528</v>
       </c>
       <c r="N6" t="n">
-        <v>0.736845589078442</v>
+        <v>0.7299358243091768</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3125578395709161</v>
+        <v>0.08675258874675294</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4855078028452245</v>
+        <v>0.4697805139303925</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3536414951133721</v>
+        <v>0.6471162725449168</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5081124659660238</v>
+        <v>0.513662110328016</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9780627814161083</v>
+        <v>0.9726351360920418</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8627025298577254</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9726256885451693</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.9121984127461801</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.4219633547882853</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.7812128593160595</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.3064700677300005</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +957,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8680748668317176</v>
+        <v>0.6804372413357069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1446577263812089</v>
+        <v>0.2246918646923591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2261235022787538</v>
+        <v>0.3296272216688462</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3116058019289516</v>
+        <v>-0.5347341347715787</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2859632393837357</v>
+        <v>-0.4404891283427897</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6370719447000111</v>
+        <v>0.6307004465237835</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1349695419802678</v>
+        <v>0.2001470236561933</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02520634799496014</v>
+        <v>-0.01835539462845083</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1508960063950169</v>
+        <v>0.01176727366750259</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04200040800539045</v>
+        <v>0.03542414166827992</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4735837031573006</v>
+        <v>0.6954776042272134</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04695889848241495</v>
+        <v>0.05390905984345917</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9981668640675965</v>
+        <v>0.6554918958173395</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2612926402612743</v>
+        <v>-0.5992284025867978</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1334721286242817</v>
+        <v>-0.1762474637420017</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.3601184977837806</v>
+        <v>-0.6093037742021974</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.252461324272604</v>
+        <v>-0.5338393997378833</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.5743818385688352</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4306542241647259</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5216403163619768</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.2615147856637065</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1240778468739919</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.02493439433268152</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +1036,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4267450598497117</v>
+        <v>0.2407653776524582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5694100647586333</v>
+        <v>0.6093222712029465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07934874349826068</v>
+        <v>0.1162244203646277</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4870151153893911</v>
+        <v>-0.5304120363906275</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.200682282864438</v>
+        <v>-0.2383051058880319</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6370719447000111</v>
+        <v>0.6307004465237835</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.631581524969921</v>
+        <v>0.6631951433798146</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1796087208774473</v>
+        <v>-0.1721053186819005</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01360926493051058</v>
+        <v>-0.05092468689261839</v>
       </c>
       <c r="L8" t="n">
-        <v>0.305760589677587</v>
+        <v>0.2986411910805503</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6064098193340788</v>
+        <v>0.6446517758359878</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3164784349379467</v>
+        <v>0.3132301751064469</v>
       </c>
       <c r="O8" t="n">
-        <v>0.645693073542374</v>
+        <v>0.2093687882049063</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4236380780206757</v>
+        <v>-0.531508727992103</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6225158763488924</v>
+        <v>0.2824825992944297</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.490791300277875</v>
+        <v>-0.5214115992395987</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1253750548220429</v>
+        <v>-0.3449607309688875</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.4192333940083044</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.2622625667938701</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.3375971533178334</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6254410230382009</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1754865402767448</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0662405688405175</v>
       </c>
     </row>
     <row r="9">
@@ -959,58 +1115,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05021226650002272</v>
+        <v>0.07577708755814427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8417064778513521</v>
+        <v>0.8354327750133551</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.314471156958618</v>
+        <v>-0.3103847922860472</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.260511454546478</v>
+        <v>-0.2571776590684125</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2570115589682361</v>
+        <v>0.247962891624597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1349695419802678</v>
+        <v>0.2001470236561933</v>
       </c>
       <c r="H9" t="n">
-        <v>0.631581524969921</v>
+        <v>0.6631951433798146</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.4469337309797596</v>
+        <v>-0.4509378696398507</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00594249727226957</v>
+        <v>0.03298785185789985</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5670480249017634</v>
+        <v>0.5766531382179174</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2097675304272725</v>
+        <v>0.2173300302074263</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5577668074412228</v>
+        <v>0.5671952218047073</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1394122729170617</v>
+        <v>0.04353286361294885</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2513812657155843</v>
+        <v>-0.1485610800681733</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9893193768037454</v>
+        <v>0.8507590080200069</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1010151187224322</v>
+        <v>-0.09519793864124759</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3505968834697122</v>
+        <v>0.1799930767483019</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1032634767988038</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1948643149514887</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1406245362936859</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.7014339899583536</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3238587690930239</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3789554460786736</v>
       </c>
     </row>
     <row r="10">
@@ -1020,58 +1194,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02349524691800729</v>
+        <v>-0.06661945784695517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06459028228668688</v>
+        <v>0.06506388715722415</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8268070669242461</v>
+        <v>0.8320358218848599</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3951667684582855</v>
+        <v>0.3624759450922164</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6838715479682913</v>
+        <v>-0.6764166293552757</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02520634799496014</v>
+        <v>-0.01835539462845083</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1796087208774473</v>
+        <v>-0.1721053186819005</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4469337309797596</v>
+        <v>-0.4509378696398507</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6309939676664776</v>
+        <v>0.6158241956119529</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.940178606586706</v>
+        <v>-0.9354076440624516</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0159537868308256</v>
+        <v>-0.0007315097267365427</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.9480116047027297</v>
+        <v>-0.9421999073981978</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01765596041996536</v>
+        <v>-0.02517163088982004</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5342673520971554</v>
+        <v>0.2425772892074797</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.5617464538617732</v>
+        <v>-0.485713090248087</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2084018941119651</v>
+        <v>0.1993582193623287</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.6227429375476635</v>
+        <v>-0.5066403757625091</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.251669481007926</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.623667096198283</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4100380165183406</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.5885907064591698</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.8344656949727305</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.4243854648427476</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1273,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1942085152557189</v>
+        <v>-0.03774096955801685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3282010014811767</v>
+        <v>0.3646291934460966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4675021524723059</v>
+        <v>0.4846250089297718</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6174954290275405</v>
+        <v>0.5807805004260772</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3530051298869593</v>
+        <v>-0.3727279924074216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1508960063950169</v>
+        <v>0.01176727366750259</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01360926493051058</v>
+        <v>-0.05092468689261839</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00594249727226957</v>
+        <v>0.03298785185789985</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6309939676664776</v>
+        <v>0.6158241956119529</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.490511190753412</v>
+        <v>-0.4887892108010642</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.07470644018832263</v>
+        <v>-0.03462735783616046</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.5258638671255768</v>
+        <v>-0.5217979021604915</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1316775713683311</v>
+        <v>0.01100301517455886</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8302594188201897</v>
+        <v>0.485626432139596</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08154465879884631</v>
+        <v>-0.0216566477826954</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4821120986376915</v>
+        <v>0.4635533935754511</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1841314837683827</v>
+        <v>-0.1884990073831049</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.04550513683942843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.4103865206730905</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.228566862159517</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1863597525008091</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.6227339362568222</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2518990854077555</v>
       </c>
     </row>
     <row r="12">
@@ -1142,58 +1352,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07864616250074435</v>
+        <v>0.1287187164702983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03366465877219822</v>
+        <v>0.03401603255618717</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8261654013351875</v>
+        <v>-0.8210667833009186</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2733888708633293</v>
+        <v>-0.2488915100961243</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7572168384458733</v>
+        <v>0.7495660397845796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04200040800539045</v>
+        <v>0.03542414166827992</v>
       </c>
       <c r="H12" t="n">
-        <v>0.305760589677587</v>
+        <v>0.2986411910805503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5670480249017634</v>
+        <v>0.5766531382179174</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.940178606586706</v>
+        <v>-0.9354076440624516</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.490511190753412</v>
+        <v>-0.4887892108010642</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.04124165613290465</v>
+        <v>-0.04954943120055121</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9987232091631164</v>
+        <v>0.998824539212791</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04119559937370702</v>
+        <v>0.09275780623623631</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.3592155628521553</v>
+        <v>-0.1156754591451298</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6803024982843806</v>
+        <v>0.6320515092351182</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.07470346295042861</v>
+        <v>-0.06836245935110573</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7409908933629313</v>
+        <v>0.6030679767388832</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4037720337629423</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.7137588595941434</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.5258065050688664</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.7829734812031202</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9056625417808237</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.356010610285849</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1431,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03712822056616227</v>
+        <v>-0.01561341485112211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2865577299445838</v>
+        <v>0.3040429728125948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5285614639123607</v>
+        <v>0.5361647724269748</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7879913574798906</v>
+        <v>-0.7930840559141554</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6760221509093335</v>
+        <v>-0.6903735515637528</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4735837031573006</v>
+        <v>0.6954776042272134</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6064098193340788</v>
+        <v>0.6446517758359878</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2097675304272725</v>
+        <v>0.2173300302074263</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0159537868308256</v>
+        <v>-0.0007315097267365427</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.07470644018832263</v>
+        <v>-0.03462735783616046</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.04124165613290465</v>
+        <v>-0.04954943120055121</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.008567648180972545</v>
+        <v>-0.01830111052796368</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5166740275442152</v>
+        <v>-0.05181424261733514</v>
       </c>
       <c r="P13" t="n">
-        <v>0.246963774138138</v>
+        <v>-0.879746001916671</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1918364443645588</v>
+        <v>-0.3112826078056283</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.894622878887988</v>
+        <v>-0.8865346240737831</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.6829236000404789</v>
+        <v>-0.8170825656977317</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.8747231024344848</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.6561830538826487</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.7805955343881646</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.1608900666525244</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.1679087122863837</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.1278325278553457</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1510,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06852308315825491</v>
+        <v>0.1266102887011399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02336378819419809</v>
+        <v>0.02350558010703257</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8138971027388426</v>
+        <v>-0.8094102709804328</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3160447763313458</v>
+        <v>-0.2900356608168712</v>
       </c>
       <c r="F14" t="n">
-        <v>0.736845589078442</v>
+        <v>0.7299358243091768</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04695889848241495</v>
+        <v>0.05390905984345917</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3164784349379467</v>
+        <v>0.3132301751064469</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5577668074412228</v>
+        <v>0.5671952218047073</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.9480116047027297</v>
+        <v>-0.9421999073981978</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.5258638671255768</v>
+        <v>-0.5217979021604915</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9987232091631164</v>
+        <v>0.998824539212791</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008567648180972545</v>
+        <v>-0.01830111052796368</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04823220037765626</v>
+        <v>0.08844765572489205</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.3805076661676898</v>
+        <v>-0.1586751179959099</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6722282113911007</v>
+        <v>0.6084289580249588</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1197523141292253</v>
+        <v>-0.1118735257912543</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7133085801568194</v>
+        <v>0.5749944835986069</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3679502614766078</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.6972083473355064</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.5011036851895525</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.7792634670640809</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.9098445899741783</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.3553905165423032</v>
       </c>
     </row>
     <row r="15">
@@ -1325,58 +1589,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8378019468292165</v>
+        <v>0.996721557730366</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1506495279069065</v>
+        <v>-0.009385895066179359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2460906573674425</v>
+        <v>-0.08464849993911626</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.353941151320089</v>
+        <v>0.03792892788078263</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3125578395709161</v>
+        <v>0.08675258874675294</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9981668640675965</v>
+        <v>0.6554918958173395</v>
       </c>
       <c r="H15" t="n">
-        <v>0.645693073542374</v>
+        <v>0.2093687882049063</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1394122729170617</v>
+        <v>0.04353286361294885</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01765596041996536</v>
+        <v>-0.02517163088982004</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1316775713683311</v>
+        <v>0.01100301517455886</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04119559937370702</v>
+        <v>0.09275780623623631</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5166740275442152</v>
+        <v>-0.05181424261733514</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04823220037765626</v>
+        <v>0.08844765572489205</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2543271724671161</v>
+        <v>0.03716314173650025</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1377833684486394</v>
+        <v>0.06026063410193583</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.4041346664730833</v>
+        <v>0.02904687768608923</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.2833799175783146</v>
+        <v>0.08035230209794871</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.08083363302847256</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.06699039962003005</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.06368735744625494</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.1969204652488713</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.01530637188143434</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1402213591810119</v>
       </c>
     </row>
     <row r="16">
@@ -1386,58 +1668,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1552069890138788</v>
+        <v>-0.01785712505780524</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5385646276594157</v>
+        <v>-0.1113034134599787</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5190446692986195</v>
+        <v>-0.2801106472844473</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3340130619854791</v>
+        <v>0.9701263385126112</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4855078028452245</v>
+        <v>0.4697805139303925</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2612926402612743</v>
+        <v>-0.5992284025867978</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4236380780206757</v>
+        <v>-0.531508727992103</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2513812657155843</v>
+        <v>-0.1485610800681733</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5342673520971554</v>
+        <v>0.2425772892074797</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8302594188201897</v>
+        <v>0.485626432139596</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3592155628521553</v>
+        <v>-0.1156754591451298</v>
       </c>
       <c r="M16" t="n">
-        <v>0.246963774138138</v>
+        <v>-0.879746001916671</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.3805076661676898</v>
+        <v>-0.1586751179959099</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2543271724671161</v>
+        <v>0.03716314173650025</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1644384690563142</v>
+        <v>0.2825996475630078</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1426985425400621</v>
+        <v>0.9935806394291243</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.2961930281256743</v>
+        <v>0.6597160239675027</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8149984075018963</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4218481096294375</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.6084825379680792</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.1457369194120955</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.0630376134945706</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.04238223752134957</v>
       </c>
     </row>
     <row r="17">
@@ -1447,58 +1747,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05912746656281086</v>
+        <v>0.07899104854840969</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7544522405607187</v>
+        <v>0.611748422910607</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4170935270918281</v>
+        <v>-0.6102186241280649</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2883851041681346</v>
+        <v>0.1133005624266376</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3536414951133721</v>
+        <v>0.6471162725449168</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1334721286242817</v>
+        <v>-0.1762474637420017</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6225158763488924</v>
+        <v>0.2824825992944297</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9893193768037454</v>
+        <v>0.8507590080200069</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.5617464538617732</v>
+        <v>-0.485713090248087</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08154465879884631</v>
+        <v>-0.0216566477826954</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6803024982843806</v>
+        <v>0.6320515092351182</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1918364443645588</v>
+        <v>-0.3112826078056283</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6722282113911007</v>
+        <v>0.6084289580249588</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1377833684486394</v>
+        <v>0.06026063410193583</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1644384690563142</v>
+        <v>0.2825996475630078</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.1139614072812568</v>
+        <v>0.3462077354137095</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4340603370650921</v>
+        <v>0.6345238123904708</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5768271192737305</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.6024429120915717</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.594535516547569</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.593175658198403</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4707006162191756</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4093380819065764</v>
       </c>
     </row>
     <row r="18">
@@ -1508,58 +1826,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02542342407305271</v>
+        <v>-0.01963290075181498</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07924624284367061</v>
+        <v>-0.07790302895166198</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.319628898284846</v>
+        <v>-0.3187302376461684</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9330234620728286</v>
+        <v>0.9388486766210815</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5081124659660238</v>
+        <v>0.513662110328016</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3601184977837806</v>
+        <v>-0.6093037742021974</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.490791300277875</v>
+        <v>-0.5214115992395987</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1010151187224322</v>
+        <v>-0.09519793864124759</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2084018941119651</v>
+        <v>0.1993582193623287</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4821120986376915</v>
+        <v>0.4635533935754511</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.07470346295042861</v>
+        <v>-0.06836245935110573</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.894622878887988</v>
+        <v>-0.8865346240737831</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1197523141292253</v>
+        <v>-0.1118735257912543</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.4041346664730833</v>
+        <v>0.02904687768608923</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1426985425400621</v>
+        <v>0.9935806394291243</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.1139614072812568</v>
+        <v>0.3462077354137095</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.592522556211227</v>
+        <v>0.6981717971394532</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.8431536168878103</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.4742014572757799</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.6527739941893562</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.123889054259956</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.01945141620019027</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.01796155515182642</v>
       </c>
     </row>
     <row r="19">
@@ -1569,57 +1905,549 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05885945250053914</v>
+        <v>0.07260189473549673</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06395621511472489</v>
+        <v>-0.1902819544471923</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9080438867139997</v>
+        <v>-0.8629056704768124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3791189986609639</v>
+        <v>0.5073829555538407</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9780627814161083</v>
+        <v>0.9726351360920418</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.252461324272604</v>
+        <v>-0.5338393997378833</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1253750548220429</v>
+        <v>-0.3449607309688875</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3505968834697122</v>
+        <v>0.1799930767483019</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.6227429375476635</v>
+        <v>-0.5066403757625091</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1841314837683827</v>
+        <v>-0.1884990073831049</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7409908933629313</v>
+        <v>0.6030679767388832</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.6829236000404789</v>
+        <v>-0.8170825656977317</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7133085801568194</v>
+        <v>0.5749944835986069</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.2833799175783146</v>
+        <v>0.08035230209794871</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.2961930281256743</v>
+        <v>0.6597160239675027</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4340603370650921</v>
+        <v>0.6345238123904708</v>
       </c>
       <c r="R19" t="n">
-        <v>0.592522556211227</v>
+        <v>0.6981717971394532</v>
       </c>
       <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.9493601739044851</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9417265073408654</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.9402319340414939</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3146120366789596</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.6430152389781578</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2486703403015741</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISEvn</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.05701446224278326</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.155899257772812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.6761068350043072</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6899649662876475</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8627025298577254</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.5743818385688352</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.4192333940083044</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1032634767988038</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.251669481007926</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04550513683942843</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4037720337629423</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.8747231024344848</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3679502614766078</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.08083363302847256</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8149984075018963</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5768271192737305</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8431536168878103</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.9493601739044851</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8427158337898533</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.9211746495546242</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2498904479479418</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.4416504787058597</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1393700930344502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYvn</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0797748856247205</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2498393400108566</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.8564570056281965</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2439928534219148</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9726256885451693</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.4306542241647259</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.2622625667938701</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1948643149514887</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.623667096198283</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.4103865206730905</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7137588595941434</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.6561830538826487</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6972083473355064</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.06699039962003005</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4218481096294375</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6024429120915717</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4742014572757799</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.9417265073408654</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8427158337898533</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.9308021264336199</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.3603988684821822</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.801772753134483</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1782895575829103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERvn</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.06067892737653356</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1886588184233778</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7536707735088728</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.4454934103144355</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.9121984127461801</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5216403163619768</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3375971533178334</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.1406245362936859</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4100380165183406</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.228566862159517</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.5258065050688664</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7805955343881646</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.5011036851895525</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.06368735744625494</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.6084825379680792</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.594535516547569</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.6527739941893562</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.9402319340414939</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.9211746495546242</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.9308021264336199</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-0.2742217840455505</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.6174012755657573</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.04099837102161708</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISECJ</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2170662335653225</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3237024838721856</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.4576237711333416</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.2107031585558488</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4219633547882853</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2615147856637065</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6254410230382009</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7014339899583536</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.5885907064591698</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.1863597525008091</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7829734812031202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1608900666525244</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7792634670640809</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1969204652488713</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1457369194120955</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.593175658198403</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.123889054259956</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.3146120366789596</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2498904479479418</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.3603988684821822</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.2742217840455505</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.6043333486310062</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.325915067797418</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYCJ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01844048144899808</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2173485390074035</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.7950303951800924</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.2009418033589134</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7812128593160595</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1240778468739919</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1754865402767448</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3238587690930239</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.8344656949727305</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.6227339362568222</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9056625417808237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1679087122863837</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9098445899741783</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.01530637188143434</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.0630376134945706</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4707006162191756</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.01945141620019027</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.6430152389781578</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.4416504787058597</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.801772753134483</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.6174012755657573</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.6043333486310062</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.135161529527751</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERCJ</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1566802401023642</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2310938208871164</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.4452426152054491</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.1110969520896056</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3064700677300005</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.02493439433268152</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0662405688405175</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3789554460786736</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.4243854648427476</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.2518990854077555</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.356010610285849</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.1278325278553457</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3553905165423032</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.1402213591810119</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.04238223752134957</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.4093380819065764</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.01796155515182642</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2486703403015741</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.1393700930344502</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1782895575829103</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.04099837102161708</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.325915067797418</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.135161529527751</v>
+      </c>
+      <c r="Y25" t="n">
         <v>1</v>
       </c>
     </row>
